--- a/Clean data/teamconferences.xlsx
+++ b/Clean data/teamconferences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njoku\OneDrive\Documents\GitHub\Project-3\Clean data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{BFDDEB84-AE7E-434E-A871-4728D2FE8F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1B1EFF9A-CEA0-4D6A-9B03-3948D4445DCF}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{BFDDEB84-AE7E-434E-A871-4728D2FE8F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A89197B1-AA8A-46C8-BA2B-99E5FE47535C}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{F9E4B631-0BCB-494E-8CC3-475E7904DFAE}"/>
+    <workbookView xWindow="8760" yWindow="3252" windowWidth="17280" windowHeight="8964" xr2:uid="{F9E4B631-0BCB-494E-8CC3-475E7904DFAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>NOP</t>
   </si>
   <si>
-    <t>SAN</t>
-  </si>
-  <si>
     <t>MIN</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Conference</t>
+  </si>
+  <si>
+    <t>SAS</t>
   </si>
 </sst>
 </file>
@@ -439,49 +439,49 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -505,79 +505,79 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Clean data/teamconferences.xlsx
+++ b/Clean data/teamconferences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njoku\OneDrive\Documents\GitHub\Project-3\Clean data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{BFDDEB84-AE7E-434E-A871-4728D2FE8F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A89197B1-AA8A-46C8-BA2B-99E5FE47535C}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{BFDDEB84-AE7E-434E-A871-4728D2FE8F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E073A5F-DB72-4850-A58D-7298B08D131B}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="3252" windowWidth="17280" windowHeight="8964" xr2:uid="{F9E4B631-0BCB-494E-8CC3-475E7904DFAE}"/>
+    <workbookView xWindow="4812" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{F9E4B631-0BCB-494E-8CC3-475E7904DFAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>TOR</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>SAS</t>
+  </si>
+  <si>
+    <t>Home/Away/For Team 1</t>
+  </si>
+  <si>
+    <t>For Team/Opponent</t>
+  </si>
+  <si>
+    <t>Win/Loss</t>
   </si>
 </sst>
 </file>
@@ -436,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78E734D-92B2-44D8-A3B0-55110E8E5156}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -452,131 +461,154 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>16</v>
       </c>
     </row>
